--- a/MatrizTributaria.xlsx
+++ b/MatrizTributaria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prime Contabil\Downloads\PROJETO\LORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D1D87-9EA5-4596-8EC1-1C27F8A9F6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3AEE2-6AC2-439A-BC75-8E9A55C62D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRIBUTAÇÃO" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="350">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -1091,8 +1091,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1120,11 +1128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1554,9 +1563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,6 +2681,9 @@
       <c r="F53">
         <v>0</v>
       </c>
+      <c r="G53" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -2692,6 +2704,7 @@
       <c r="F54">
         <v>0</v>
       </c>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -12873,6 +12886,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MatrizTributaria.xlsx
+++ b/MatrizTributaria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prime Contabil\Downloads\PROJETO\LORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3AEE2-6AC2-439A-BC75-8E9A55C62D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C9011-1BF9-40B3-A167-C387B084F037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRIBUTAÇÃO" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="361">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Compra p/ industrialização ou produção rural</t>
   </si>
   <si>
-    <t>COMPRA</t>
-  </si>
-  <si>
     <t>Compra p/ comercialização</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t xml:space="preserve">Devolução de venda de produção do estabelecimento </t>
   </si>
   <si>
-    <t>DEVOLUÇÃO</t>
-  </si>
-  <si>
     <t>Devolução de venda de mercadoria adquirida ou recebida de terceiros</t>
   </si>
   <si>
@@ -538,9 +532,6 @@
     <t>Venda de produção do estabelecimento</t>
   </si>
   <si>
-    <t>VENDA</t>
-  </si>
-  <si>
     <t>Venda de mercadoria adquirida ou recebida de terceiros</t>
   </si>
   <si>
@@ -1085,6 +1076,48 @@
   </si>
   <si>
     <t>DIESEL</t>
+  </si>
+  <si>
+    <t>ETANOL HIDRATADO</t>
+  </si>
+  <si>
+    <t>COMPRA MERCADORIA</t>
+  </si>
+  <si>
+    <t>DEVOLUÇÃO MERCADORIA</t>
+  </si>
+  <si>
+    <t>VENDA MERCADORIA</t>
+  </si>
+  <si>
+    <t>COMPRA COMBUSTIVEL OU LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t>VENDA COMBUSTIVEL OU LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t>TITULO JÁ EMITIDO</t>
+  </si>
+  <si>
+    <t>ARLA 32  20L</t>
+  </si>
+  <si>
+    <t>LUBRAX ESSEN ALTA ROD SL 25W50</t>
+  </si>
+  <si>
+    <t>LUBRAX EXT TURB CH4 15W40 20L</t>
+  </si>
+  <si>
+    <t>LUBRAX FLUIDO DOT4 200ML</t>
+  </si>
+  <si>
+    <t>LUBRAX FLUIDO FREIO DOT3 200ML</t>
+  </si>
+  <si>
+    <t>LUBRAX VALORA FLEX</t>
+  </si>
+  <si>
+    <t>MERCADORIA</t>
   </si>
 </sst>
 </file>
@@ -1128,12 +1161,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="102.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1442,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="B2" s="1">
         <v>22071090</v>
@@ -1456,101 +1492,149 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B3" s="1">
         <v>27101932</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B4" s="1">
         <v>27101932</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B5" s="1">
         <v>27101932</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1">
         <v>27101932</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B7" s="1">
         <v>27101932</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B8" s="1">
         <v>27101932</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B9" s="1">
         <v>27101259</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B10" s="1">
         <v>27101259</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B11" s="1">
         <v>27101921</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -1563,9 +1647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1048555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1048576" sqref="G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1625,7 +1709,7 @@
         <v>1102</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1640,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,7 +1732,7 @@
         <v>1111</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1663,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1671,7 +1755,7 @@
         <v>1113</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1686,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1694,7 +1778,7 @@
         <v>1116</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1709,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,7 +1801,7 @@
         <v>1117</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1732,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1740,7 +1824,7 @@
         <v>1118</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1755,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,7 +1847,7 @@
         <v>1120</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1778,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,7 +1870,7 @@
         <v>1121</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1801,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1809,7 +1893,7 @@
         <v>1122</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1824,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1832,7 +1916,7 @@
         <v>1124</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1852,7 +1936,7 @@
         <v>1125</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1872,7 +1956,7 @@
         <v>1126</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1892,7 +1976,7 @@
         <v>1128</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1912,7 +1996,7 @@
         <v>1151</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1932,22 +2016,22 @@
         <v>1152</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>41</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,7 +2039,7 @@
         <v>1153</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1975,7 +2059,7 @@
         <v>1154</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1995,7 +2079,7 @@
         <v>1201</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2010,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,7 +2102,7 @@
         <v>1202</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2033,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,7 +2125,7 @@
         <v>1203</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2061,7 +2145,7 @@
         <v>1204</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2081,7 +2165,7 @@
         <v>1205</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2101,7 +2185,7 @@
         <v>1206</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2121,7 +2205,7 @@
         <v>1207</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2141,7 +2225,7 @@
         <v>1208</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2161,7 +2245,7 @@
         <v>1209</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2176,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,7 +2268,7 @@
         <v>1212</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2204,7 +2288,7 @@
         <v>1251</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2224,7 +2308,7 @@
         <v>1252</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2244,7 +2328,7 @@
         <v>1253</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2259,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,7 +2351,7 @@
         <v>1254</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2287,7 +2371,7 @@
         <v>1255</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2307,7 +2391,7 @@
         <v>1256</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2327,7 +2411,7 @@
         <v>1257</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2347,7 +2431,7 @@
         <v>1301</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2367,7 +2451,7 @@
         <v>1302</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2387,7 +2471,7 @@
         <v>1303</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2407,7 +2491,7 @@
         <v>1304</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2427,7 +2511,7 @@
         <v>1305</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2447,7 +2531,7 @@
         <v>1306</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2467,7 +2551,7 @@
         <v>1351</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2487,7 +2571,7 @@
         <v>1352</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2507,7 +2591,7 @@
         <v>1353</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2527,7 +2611,7 @@
         <v>1354</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2547,7 +2631,7 @@
         <v>1355</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2567,7 +2651,7 @@
         <v>1356</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2587,7 +2671,7 @@
         <v>1360</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2607,7 +2691,7 @@
         <v>1401</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2627,7 +2711,7 @@
         <v>1403</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2647,7 +2731,7 @@
         <v>1406</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2667,7 +2751,7 @@
         <v>1407</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2682,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,7 +2774,7 @@
         <v>1408</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2711,7 +2795,7 @@
         <v>1409</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2731,7 +2815,7 @@
         <v>1410</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2746,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,7 +2838,7 @@
         <v>1411</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2769,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,7 +2861,7 @@
         <v>1414</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2797,7 +2881,7 @@
         <v>1415</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2817,7 +2901,7 @@
         <v>1451</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2837,7 +2921,7 @@
         <v>1452</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2857,7 +2941,7 @@
         <v>1501</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2877,7 +2961,7 @@
         <v>1503</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2897,7 +2981,7 @@
         <v>1504</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2917,7 +3001,7 @@
         <v>1505</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2937,7 +3021,7 @@
         <v>1506</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2957,7 +3041,7 @@
         <v>1551</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2977,7 +3061,7 @@
         <v>1552</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2997,7 +3081,7 @@
         <v>1553</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3017,7 +3101,7 @@
         <v>1554</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3037,7 +3121,7 @@
         <v>1555</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3057,7 +3141,7 @@
         <v>1556</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3072,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3080,7 +3164,7 @@
         <v>1557</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3100,7 +3184,7 @@
         <v>1601</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3120,7 +3204,7 @@
         <v>1602</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3140,7 +3224,7 @@
         <v>1603</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3160,7 +3244,7 @@
         <v>1604</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3180,7 +3264,7 @@
         <v>1605</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3200,7 +3284,7 @@
         <v>1651</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3220,7 +3304,7 @@
         <v>1652</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3234,13 +3318,16 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1653</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3254,13 +3341,16 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1658</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3275,12 +3365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1659</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3295,12 +3385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1660</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3315,12 +3405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1661</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3335,12 +3425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1662</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3355,12 +3445,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1663</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3375,12 +3465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1664</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3395,12 +3485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1901</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3415,12 +3505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1902</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3435,12 +3525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1903</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3455,12 +3545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1904</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -3475,12 +3565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1905</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3495,12 +3585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1906</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3515,12 +3605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1907</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3535,12 +3625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1908</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3560,7 +3650,7 @@
         <v>1909</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3580,7 +3670,7 @@
         <v>1910</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3600,7 +3690,7 @@
         <v>1911</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3620,7 +3710,7 @@
         <v>1912</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3640,7 +3730,7 @@
         <v>1913</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3660,7 +3750,7 @@
         <v>1914</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3680,7 +3770,7 @@
         <v>1915</v>
       </c>
       <c r="B103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3700,7 +3790,7 @@
         <v>1916</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3720,7 +3810,7 @@
         <v>1917</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -3740,7 +3830,7 @@
         <v>1918</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -3760,7 +3850,7 @@
         <v>1919</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3780,7 +3870,7 @@
         <v>1920</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3800,7 +3890,7 @@
         <v>1921</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3820,7 +3910,7 @@
         <v>1922</v>
       </c>
       <c r="B110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3840,7 +3930,7 @@
         <v>1923</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3860,7 +3950,7 @@
         <v>1924</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3880,7 +3970,7 @@
         <v>1925</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3900,7 +3990,7 @@
         <v>1926</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3920,7 +4010,7 @@
         <v>1931</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3940,7 +4030,7 @@
         <v>1932</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3960,7 +4050,7 @@
         <v>1933</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3980,7 +4070,7 @@
         <v>1934</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -4000,7 +4090,7 @@
         <v>1949</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4040,7 +4130,7 @@
         <v>2102</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -4060,7 +4150,7 @@
         <v>2111</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4080,7 +4170,7 @@
         <v>2113</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -4100,7 +4190,7 @@
         <v>2116</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -4120,7 +4210,7 @@
         <v>2117</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -4140,7 +4230,7 @@
         <v>2118</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -4160,7 +4250,7 @@
         <v>2120</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -4180,7 +4270,7 @@
         <v>2121</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -4200,7 +4290,7 @@
         <v>2122</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -4220,7 +4310,7 @@
         <v>2124</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4240,7 +4330,7 @@
         <v>2125</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4260,7 +4350,7 @@
         <v>2126</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -4280,7 +4370,7 @@
         <v>2128</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4300,7 +4390,7 @@
         <v>2151</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -4320,7 +4410,7 @@
         <v>2152</v>
       </c>
       <c r="B135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4340,7 +4430,7 @@
         <v>2153</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -4360,7 +4450,7 @@
         <v>2154</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -4380,7 +4470,7 @@
         <v>2201</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4400,7 +4490,7 @@
         <v>2202</v>
       </c>
       <c r="B139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4420,7 +4510,7 @@
         <v>2203</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4440,7 +4530,7 @@
         <v>2204</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4460,7 +4550,7 @@
         <v>2205</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4480,7 +4570,7 @@
         <v>2206</v>
       </c>
       <c r="B143" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -4500,7 +4590,7 @@
         <v>2207</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -4520,7 +4610,7 @@
         <v>2208</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -4540,7 +4630,7 @@
         <v>2209</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -4560,7 +4650,7 @@
         <v>2212</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4580,7 +4670,7 @@
         <v>2251</v>
       </c>
       <c r="B148" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4600,7 +4690,7 @@
         <v>2252</v>
       </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4620,7 +4710,7 @@
         <v>2253</v>
       </c>
       <c r="B150" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4640,7 +4730,7 @@
         <v>2254</v>
       </c>
       <c r="B151" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -4660,7 +4750,7 @@
         <v>2255</v>
       </c>
       <c r="B152" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -4680,7 +4770,7 @@
         <v>2256</v>
       </c>
       <c r="B153" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4700,7 +4790,7 @@
         <v>2257</v>
       </c>
       <c r="B154" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4720,7 +4810,7 @@
         <v>2301</v>
       </c>
       <c r="B155" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -4740,7 +4830,7 @@
         <v>2302</v>
       </c>
       <c r="B156" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -4760,7 +4850,7 @@
         <v>2303</v>
       </c>
       <c r="B157" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -4780,7 +4870,7 @@
         <v>2304</v>
       </c>
       <c r="B158" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -4800,7 +4890,7 @@
         <v>2305</v>
       </c>
       <c r="B159" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -4820,7 +4910,7 @@
         <v>2306</v>
       </c>
       <c r="B160" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4840,7 +4930,7 @@
         <v>2351</v>
       </c>
       <c r="B161" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4860,7 +4950,7 @@
         <v>2352</v>
       </c>
       <c r="B162" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4880,7 +4970,7 @@
         <v>2353</v>
       </c>
       <c r="B163" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -4900,7 +4990,7 @@
         <v>2354</v>
       </c>
       <c r="B164" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -4920,7 +5010,7 @@
         <v>2355</v>
       </c>
       <c r="B165" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -4940,7 +5030,7 @@
         <v>2356</v>
       </c>
       <c r="B166" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -4960,7 +5050,7 @@
         <v>2401</v>
       </c>
       <c r="B167" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -4980,7 +5070,7 @@
         <v>2403</v>
       </c>
       <c r="B168" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -5000,7 +5090,7 @@
         <v>2406</v>
       </c>
       <c r="B169" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -5020,7 +5110,7 @@
         <v>2407</v>
       </c>
       <c r="B170" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -5040,7 +5130,7 @@
         <v>2408</v>
       </c>
       <c r="B171" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -5060,7 +5150,7 @@
         <v>2409</v>
       </c>
       <c r="B172" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -5080,7 +5170,7 @@
         <v>2410</v>
       </c>
       <c r="B173" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -5100,7 +5190,7 @@
         <v>2411</v>
       </c>
       <c r="B174" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -5120,7 +5210,7 @@
         <v>2414</v>
       </c>
       <c r="B175" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -5140,7 +5230,7 @@
         <v>2415</v>
       </c>
       <c r="B176" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -5160,7 +5250,7 @@
         <v>2501</v>
       </c>
       <c r="B177" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -5180,7 +5270,7 @@
         <v>2503</v>
       </c>
       <c r="B178" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -5200,7 +5290,7 @@
         <v>2504</v>
       </c>
       <c r="B179" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -5220,7 +5310,7 @@
         <v>2505</v>
       </c>
       <c r="B180" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -5240,7 +5330,7 @@
         <v>2506</v>
       </c>
       <c r="B181" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -5260,7 +5350,7 @@
         <v>2551</v>
       </c>
       <c r="B182" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -5280,7 +5370,7 @@
         <v>2552</v>
       </c>
       <c r="B183" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -5300,7 +5390,7 @@
         <v>2553</v>
       </c>
       <c r="B184" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -5320,7 +5410,7 @@
         <v>2554</v>
       </c>
       <c r="B185" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -5340,7 +5430,7 @@
         <v>2555</v>
       </c>
       <c r="B186" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -5360,7 +5450,7 @@
         <v>2556</v>
       </c>
       <c r="B187" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -5380,7 +5470,7 @@
         <v>2557</v>
       </c>
       <c r="B188" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -5400,7 +5490,7 @@
         <v>2603</v>
       </c>
       <c r="B189" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -5420,7 +5510,7 @@
         <v>2651</v>
       </c>
       <c r="B190" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -5440,7 +5530,7 @@
         <v>2652</v>
       </c>
       <c r="B191" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -5460,7 +5550,7 @@
         <v>2652</v>
       </c>
       <c r="B192" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -5480,7 +5570,7 @@
         <v>2653</v>
       </c>
       <c r="B193" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -5500,7 +5590,7 @@
         <v>2658</v>
       </c>
       <c r="B194" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -5520,7 +5610,7 @@
         <v>2659</v>
       </c>
       <c r="B195" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -5540,7 +5630,7 @@
         <v>2660</v>
       </c>
       <c r="B196" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -5560,7 +5650,7 @@
         <v>2661</v>
       </c>
       <c r="B197" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -5580,7 +5670,7 @@
         <v>2662</v>
       </c>
       <c r="B198" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -5600,7 +5690,7 @@
         <v>2663</v>
       </c>
       <c r="B199" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -5620,7 +5710,7 @@
         <v>2664</v>
       </c>
       <c r="B200" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5640,7 +5730,7 @@
         <v>2901</v>
       </c>
       <c r="B201" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5660,7 +5750,7 @@
         <v>2902</v>
       </c>
       <c r="B202" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5680,7 +5770,7 @@
         <v>2903</v>
       </c>
       <c r="B203" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5700,7 +5790,7 @@
         <v>2904</v>
       </c>
       <c r="B204" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -5720,7 +5810,7 @@
         <v>2905</v>
       </c>
       <c r="B205" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -5740,7 +5830,7 @@
         <v>2906</v>
       </c>
       <c r="B206" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -5760,7 +5850,7 @@
         <v>2907</v>
       </c>
       <c r="B207" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -5780,7 +5870,7 @@
         <v>2908</v>
       </c>
       <c r="B208" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -5800,7 +5890,7 @@
         <v>2909</v>
       </c>
       <c r="B209" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -5820,7 +5910,7 @@
         <v>2910</v>
       </c>
       <c r="B210" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -5840,7 +5930,7 @@
         <v>2911</v>
       </c>
       <c r="B211" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -5860,7 +5950,7 @@
         <v>2912</v>
       </c>
       <c r="B212" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -5880,7 +5970,7 @@
         <v>2913</v>
       </c>
       <c r="B213" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -5900,7 +5990,7 @@
         <v>2914</v>
       </c>
       <c r="B214" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -5920,7 +6010,7 @@
         <v>2915</v>
       </c>
       <c r="B215" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -5940,7 +6030,7 @@
         <v>2916</v>
       </c>
       <c r="B216" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -5960,7 +6050,7 @@
         <v>2917</v>
       </c>
       <c r="B217" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -5980,7 +6070,7 @@
         <v>2918</v>
       </c>
       <c r="B218" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -6000,7 +6090,7 @@
         <v>2919</v>
       </c>
       <c r="B219" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -6020,7 +6110,7 @@
         <v>2920</v>
       </c>
       <c r="B220" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -6040,7 +6130,7 @@
         <v>2921</v>
       </c>
       <c r="B221" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -6060,7 +6150,7 @@
         <v>2922</v>
       </c>
       <c r="B222" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -6080,7 +6170,7 @@
         <v>2923</v>
       </c>
       <c r="B223" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -6100,7 +6190,7 @@
         <v>2924</v>
       </c>
       <c r="B224" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -6120,7 +6210,7 @@
         <v>2925</v>
       </c>
       <c r="B225" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -6140,7 +6230,7 @@
         <v>2931</v>
       </c>
       <c r="B226" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -6160,7 +6250,7 @@
         <v>2932</v>
       </c>
       <c r="B227" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -6180,7 +6270,7 @@
         <v>2933</v>
       </c>
       <c r="B228" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -6200,7 +6290,7 @@
         <v>2934</v>
       </c>
       <c r="B229" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -6220,7 +6310,7 @@
         <v>2949</v>
       </c>
       <c r="B230" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -6260,7 +6350,7 @@
         <v>3102</v>
       </c>
       <c r="B232" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -6280,7 +6370,7 @@
         <v>3126</v>
       </c>
       <c r="B233" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -6300,7 +6390,7 @@
         <v>3127</v>
       </c>
       <c r="B234" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -6320,7 +6410,7 @@
         <v>3128</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -6340,7 +6430,7 @@
         <v>3129</v>
       </c>
       <c r="B236" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -6360,7 +6450,7 @@
         <v>3201</v>
       </c>
       <c r="B237" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -6380,7 +6470,7 @@
         <v>3202</v>
       </c>
       <c r="B238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -6400,7 +6490,7 @@
         <v>3205</v>
       </c>
       <c r="B239" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -6420,7 +6510,7 @@
         <v>3206</v>
       </c>
       <c r="B240" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -6440,7 +6530,7 @@
         <v>3207</v>
       </c>
       <c r="B241" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -6460,7 +6550,7 @@
         <v>3211</v>
       </c>
       <c r="B242" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -6480,7 +6570,7 @@
         <v>3212</v>
       </c>
       <c r="B243" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -6500,7 +6590,7 @@
         <v>3251</v>
       </c>
       <c r="B244" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -6520,7 +6610,7 @@
         <v>3301</v>
       </c>
       <c r="B245" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -6540,7 +6630,7 @@
         <v>3351</v>
       </c>
       <c r="B246" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -6560,7 +6650,7 @@
         <v>3352</v>
       </c>
       <c r="B247" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -6580,7 +6670,7 @@
         <v>3353</v>
       </c>
       <c r="B248" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -6600,7 +6690,7 @@
         <v>3354</v>
       </c>
       <c r="B249" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -6620,7 +6710,7 @@
         <v>3355</v>
       </c>
       <c r="B250" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -6640,7 +6730,7 @@
         <v>3356</v>
       </c>
       <c r="B251" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -6660,7 +6750,7 @@
         <v>3503</v>
       </c>
       <c r="B252" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6680,7 +6770,7 @@
         <v>3551</v>
       </c>
       <c r="B253" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -6700,7 +6790,7 @@
         <v>3553</v>
       </c>
       <c r="B254" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -6720,7 +6810,7 @@
         <v>3556</v>
       </c>
       <c r="B255" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -6740,7 +6830,7 @@
         <v>3651</v>
       </c>
       <c r="B256" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -6760,7 +6850,7 @@
         <v>3652</v>
       </c>
       <c r="B257" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -6780,7 +6870,7 @@
         <v>3653</v>
       </c>
       <c r="B258" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -6800,7 +6890,7 @@
         <v>3930</v>
       </c>
       <c r="B259" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -6820,7 +6910,7 @@
         <v>3949</v>
       </c>
       <c r="B260" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -6840,7 +6930,7 @@
         <v>5101</v>
       </c>
       <c r="B261" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -6855,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>167</v>
+        <v>350</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -6863,7 +6953,7 @@
         <v>5102</v>
       </c>
       <c r="B262" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -6878,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>167</v>
+        <v>350</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -6886,7 +6976,7 @@
         <v>5103</v>
       </c>
       <c r="B263" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -6906,7 +6996,7 @@
         <v>5104</v>
       </c>
       <c r="B264" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -6926,7 +7016,7 @@
         <v>5105</v>
       </c>
       <c r="B265" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -6946,7 +7036,7 @@
         <v>5106</v>
       </c>
       <c r="B266" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -6966,7 +7056,7 @@
         <v>5109</v>
       </c>
       <c r="B267" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -6986,7 +7076,7 @@
         <v>5110</v>
       </c>
       <c r="B268" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -7006,7 +7096,7 @@
         <v>5111</v>
       </c>
       <c r="B269" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -7026,7 +7116,7 @@
         <v>5112</v>
       </c>
       <c r="B270" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -7046,7 +7136,7 @@
         <v>5113</v>
       </c>
       <c r="B271" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -7066,7 +7156,7 @@
         <v>5114</v>
       </c>
       <c r="B272" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -7086,7 +7176,7 @@
         <v>5115</v>
       </c>
       <c r="B273" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -7106,7 +7196,7 @@
         <v>5116</v>
       </c>
       <c r="B274" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -7126,7 +7216,7 @@
         <v>5117</v>
       </c>
       <c r="B275" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -7146,7 +7236,7 @@
         <v>5118</v>
       </c>
       <c r="B276" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -7166,7 +7256,7 @@
         <v>5119</v>
       </c>
       <c r="B277" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -7186,7 +7276,7 @@
         <v>5120</v>
       </c>
       <c r="B278" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -7206,7 +7296,7 @@
         <v>5122</v>
       </c>
       <c r="B279" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -7226,7 +7316,7 @@
         <v>5123</v>
       </c>
       <c r="B280" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -7246,7 +7336,7 @@
         <v>5124</v>
       </c>
       <c r="B281" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -7266,7 +7356,7 @@
         <v>5125</v>
       </c>
       <c r="B282" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -7286,7 +7376,7 @@
         <v>5129</v>
       </c>
       <c r="B283" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -7323,7 +7413,7 @@
         <v>5152</v>
       </c>
       <c r="B285" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -7343,7 +7433,7 @@
         <v>5153</v>
       </c>
       <c r="B286" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -7363,7 +7453,7 @@
         <v>5155</v>
       </c>
       <c r="B287" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -7383,7 +7473,7 @@
         <v>5156</v>
       </c>
       <c r="B288" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -7403,7 +7493,7 @@
         <v>5201</v>
       </c>
       <c r="B289" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -7418,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7426,7 +7516,7 @@
         <v>5202</v>
       </c>
       <c r="B290" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -7441,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="G290" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7449,7 +7539,7 @@
         <v>5205</v>
       </c>
       <c r="B291" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -7469,7 +7559,7 @@
         <v>5206</v>
       </c>
       <c r="B292" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -7489,7 +7579,7 @@
         <v>5207</v>
       </c>
       <c r="B293" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -7509,7 +7599,7 @@
         <v>5208</v>
       </c>
       <c r="B294" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -7529,7 +7619,7 @@
         <v>5209</v>
       </c>
       <c r="B295" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -7549,7 +7639,7 @@
         <v>5210</v>
       </c>
       <c r="B296" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -7569,7 +7659,7 @@
         <v>5251</v>
       </c>
       <c r="B297" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -7589,7 +7679,7 @@
         <v>5252</v>
       </c>
       <c r="B298" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -7609,7 +7699,7 @@
         <v>5253</v>
       </c>
       <c r="B299" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -7629,7 +7719,7 @@
         <v>5254</v>
       </c>
       <c r="B300" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -7649,7 +7739,7 @@
         <v>5255</v>
       </c>
       <c r="B301" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -7669,7 +7759,7 @@
         <v>5256</v>
       </c>
       <c r="B302" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -7689,7 +7779,7 @@
         <v>5257</v>
       </c>
       <c r="B303" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -7709,7 +7799,7 @@
         <v>5258</v>
       </c>
       <c r="B304" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -7729,7 +7819,7 @@
         <v>5301</v>
       </c>
       <c r="B305" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -7749,7 +7839,7 @@
         <v>5302</v>
       </c>
       <c r="B306" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -7769,7 +7859,7 @@
         <v>5303</v>
       </c>
       <c r="B307" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -7789,7 +7879,7 @@
         <v>5304</v>
       </c>
       <c r="B308" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -7809,7 +7899,7 @@
         <v>5305</v>
       </c>
       <c r="B309" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -7829,7 +7919,7 @@
         <v>5306</v>
       </c>
       <c r="B310" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -7849,7 +7939,7 @@
         <v>5307</v>
       </c>
       <c r="B311" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -7869,7 +7959,7 @@
         <v>5351</v>
       </c>
       <c r="B312" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -7889,7 +7979,7 @@
         <v>5352</v>
       </c>
       <c r="B313" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -7909,7 +7999,7 @@
         <v>5353</v>
       </c>
       <c r="B314" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -7929,7 +8019,7 @@
         <v>5354</v>
       </c>
       <c r="B315" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -7949,7 +8039,7 @@
         <v>5355</v>
       </c>
       <c r="B316" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -7969,7 +8059,7 @@
         <v>5356</v>
       </c>
       <c r="B317" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -7989,7 +8079,7 @@
         <v>5357</v>
       </c>
       <c r="B318" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -8009,7 +8099,7 @@
         <v>5359</v>
       </c>
       <c r="B319" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -8029,7 +8119,7 @@
         <v>5360</v>
       </c>
       <c r="B320" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -8044,12 +8134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>5401</v>
       </c>
       <c r="B321" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -8064,12 +8154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>5402</v>
       </c>
       <c r="B322" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -8084,12 +8174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5403</v>
       </c>
       <c r="B323" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -8104,12 +8194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>5405</v>
       </c>
       <c r="B324" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -8123,13 +8213,16 @@
       <c r="F324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5408</v>
       </c>
       <c r="B325" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -8144,12 +8237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>5409</v>
       </c>
       <c r="B326" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -8164,12 +8257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>5410</v>
       </c>
       <c r="B327" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -8184,12 +8277,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>5411</v>
       </c>
       <c r="B328" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -8204,12 +8297,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>5412</v>
       </c>
       <c r="B329" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -8224,12 +8317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5413</v>
       </c>
       <c r="B330" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -8244,12 +8337,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>5414</v>
       </c>
       <c r="B331" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -8264,12 +8357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>5415</v>
       </c>
       <c r="B332" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -8284,12 +8377,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>5451</v>
       </c>
       <c r="B333" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -8304,12 +8397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>5501</v>
       </c>
       <c r="B334" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -8324,12 +8417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>5502</v>
       </c>
       <c r="B335" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -8344,12 +8437,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>5503</v>
       </c>
       <c r="B336" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -8369,7 +8462,7 @@
         <v>5504</v>
       </c>
       <c r="B337" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -8389,7 +8482,7 @@
         <v>5505</v>
       </c>
       <c r="B338" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -8409,7 +8502,7 @@
         <v>5551</v>
       </c>
       <c r="B339" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -8429,7 +8522,7 @@
         <v>5552</v>
       </c>
       <c r="B340" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -8449,7 +8542,7 @@
         <v>5553</v>
       </c>
       <c r="B341" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -8469,7 +8562,7 @@
         <v>5554</v>
       </c>
       <c r="B342" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -8489,7 +8582,7 @@
         <v>5555</v>
       </c>
       <c r="B343" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -8509,7 +8602,7 @@
         <v>5556</v>
       </c>
       <c r="B344" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -8529,7 +8622,7 @@
         <v>5557</v>
       </c>
       <c r="B345" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -8549,7 +8642,7 @@
         <v>5601</v>
       </c>
       <c r="B346" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -8569,7 +8662,7 @@
         <v>5602</v>
       </c>
       <c r="B347" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -8589,7 +8682,7 @@
         <v>5603</v>
       </c>
       <c r="B348" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -8609,7 +8702,7 @@
         <v>5605</v>
       </c>
       <c r="B349" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -8629,7 +8722,7 @@
         <v>5606</v>
       </c>
       <c r="B350" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -8649,7 +8742,7 @@
         <v>5651</v>
       </c>
       <c r="B351" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -8669,7 +8762,7 @@
         <v>5652</v>
       </c>
       <c r="B352" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -8684,12 +8777,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5653</v>
       </c>
       <c r="B353" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -8704,12 +8797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>5654</v>
       </c>
       <c r="B354" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -8724,12 +8817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>5655</v>
       </c>
       <c r="B355" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -8744,12 +8837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>5656</v>
       </c>
       <c r="B356" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -8763,13 +8856,16 @@
       <c r="F356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>5657</v>
       </c>
       <c r="B357" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -8784,12 +8880,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5658</v>
       </c>
       <c r="B358" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -8804,12 +8900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>5659</v>
       </c>
       <c r="B359" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -8824,12 +8920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>5660</v>
       </c>
       <c r="B360" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -8844,12 +8940,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5661</v>
       </c>
       <c r="B361" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -8864,12 +8960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>5662</v>
       </c>
       <c r="B362" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -8884,12 +8980,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>5663</v>
       </c>
       <c r="B363" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -8904,12 +9000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>5664</v>
       </c>
       <c r="B364" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -8924,12 +9020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>5665</v>
       </c>
       <c r="B365" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -8944,12 +9040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>5666</v>
       </c>
       <c r="B366" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -8964,12 +9060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>5667</v>
       </c>
       <c r="B367" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -8984,12 +9080,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>5901</v>
       </c>
       <c r="B368" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -9009,7 +9105,7 @@
         <v>5902</v>
       </c>
       <c r="B369" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -9029,7 +9125,7 @@
         <v>5903</v>
       </c>
       <c r="B370" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -9049,7 +9145,7 @@
         <v>5904</v>
       </c>
       <c r="B371" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -9069,7 +9165,7 @@
         <v>5905</v>
       </c>
       <c r="B372" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -9089,7 +9185,7 @@
         <v>5906</v>
       </c>
       <c r="B373" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -9109,7 +9205,7 @@
         <v>5907</v>
       </c>
       <c r="B374" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -9129,7 +9225,7 @@
         <v>5908</v>
       </c>
       <c r="B375" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -9149,7 +9245,7 @@
         <v>5909</v>
       </c>
       <c r="B376" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -9169,7 +9265,7 @@
         <v>5910</v>
       </c>
       <c r="B377" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -9189,7 +9285,7 @@
         <v>5911</v>
       </c>
       <c r="B378" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -9209,7 +9305,7 @@
         <v>5912</v>
       </c>
       <c r="B379" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -9229,7 +9325,7 @@
         <v>5913</v>
       </c>
       <c r="B380" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -9249,7 +9345,7 @@
         <v>5914</v>
       </c>
       <c r="B381" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -9269,7 +9365,7 @@
         <v>5915</v>
       </c>
       <c r="B382" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -9289,7 +9385,7 @@
         <v>5916</v>
       </c>
       <c r="B383" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -9309,7 +9405,7 @@
         <v>5917</v>
       </c>
       <c r="B384" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -9324,12 +9420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>5918</v>
       </c>
       <c r="B385" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -9344,12 +9440,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>5919</v>
       </c>
       <c r="B386" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -9364,12 +9460,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>5920</v>
       </c>
       <c r="B387" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -9384,12 +9480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>5921</v>
       </c>
       <c r="B388" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -9404,12 +9500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>5922</v>
       </c>
       <c r="B389" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -9424,12 +9520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>5923</v>
       </c>
       <c r="B390" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -9444,12 +9540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>5924</v>
       </c>
       <c r="B391" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -9464,12 +9560,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>5925</v>
       </c>
       <c r="B392" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -9484,12 +9580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>5926</v>
       </c>
       <c r="B393" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -9504,12 +9600,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>5927</v>
       </c>
       <c r="B394" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -9524,12 +9620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>5928</v>
       </c>
       <c r="B395" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -9544,12 +9640,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>5929</v>
       </c>
       <c r="B396" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -9563,13 +9659,16 @@
       <c r="F396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G396" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>5931</v>
       </c>
       <c r="B397" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -9584,12 +9683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>5932</v>
       </c>
       <c r="B398" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -9604,12 +9703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>5933</v>
       </c>
       <c r="B399" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -9624,12 +9723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>5934</v>
       </c>
       <c r="B400" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -9649,7 +9748,7 @@
         <v>5949</v>
       </c>
       <c r="B401" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -9669,7 +9768,7 @@
         <v>6101</v>
       </c>
       <c r="B402" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -9689,7 +9788,7 @@
         <v>6102</v>
       </c>
       <c r="B403" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -9709,7 +9808,7 @@
         <v>6103</v>
       </c>
       <c r="B404" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -9729,7 +9828,7 @@
         <v>6104</v>
       </c>
       <c r="B405" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -9749,7 +9848,7 @@
         <v>6105</v>
       </c>
       <c r="B406" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -9769,7 +9868,7 @@
         <v>6106</v>
       </c>
       <c r="B407" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -9789,7 +9888,7 @@
         <v>6107</v>
       </c>
       <c r="B408" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -9809,7 +9908,7 @@
         <v>6108</v>
       </c>
       <c r="B409" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -9829,7 +9928,7 @@
         <v>6109</v>
       </c>
       <c r="B410" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -9849,7 +9948,7 @@
         <v>6110</v>
       </c>
       <c r="B411" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -9869,7 +9968,7 @@
         <v>6111</v>
       </c>
       <c r="B412" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -9889,7 +9988,7 @@
         <v>6112</v>
       </c>
       <c r="B413" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -9909,7 +10008,7 @@
         <v>6113</v>
       </c>
       <c r="B414" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -9929,7 +10028,7 @@
         <v>6114</v>
       </c>
       <c r="B415" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -9949,7 +10048,7 @@
         <v>6115</v>
       </c>
       <c r="B416" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -9969,7 +10068,7 @@
         <v>6116</v>
       </c>
       <c r="B417" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -9989,7 +10088,7 @@
         <v>6117</v>
       </c>
       <c r="B418" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -10009,7 +10108,7 @@
         <v>6118</v>
       </c>
       <c r="B419" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -10029,7 +10128,7 @@
         <v>6119</v>
       </c>
       <c r="B420" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -10049,7 +10148,7 @@
         <v>6120</v>
       </c>
       <c r="B421" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -10069,7 +10168,7 @@
         <v>6122</v>
       </c>
       <c r="B422" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -10089,7 +10188,7 @@
         <v>6123</v>
       </c>
       <c r="B423" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -10109,7 +10208,7 @@
         <v>6124</v>
       </c>
       <c r="B424" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -10129,7 +10228,7 @@
         <v>6125</v>
       </c>
       <c r="B425" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -10149,7 +10248,7 @@
         <v>6129</v>
       </c>
       <c r="B426" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -10169,7 +10268,7 @@
         <v>6151</v>
       </c>
       <c r="B427" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -10189,7 +10288,7 @@
         <v>6152</v>
       </c>
       <c r="B428" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -10209,7 +10308,7 @@
         <v>6153</v>
       </c>
       <c r="B429" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -10229,7 +10328,7 @@
         <v>6155</v>
       </c>
       <c r="B430" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -10249,7 +10348,7 @@
         <v>6156</v>
       </c>
       <c r="B431" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -10269,7 +10368,7 @@
         <v>6201</v>
       </c>
       <c r="B432" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -10289,7 +10388,7 @@
         <v>6202</v>
       </c>
       <c r="B433" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -10309,7 +10408,7 @@
         <v>6205</v>
       </c>
       <c r="B434" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -10329,7 +10428,7 @@
         <v>6206</v>
       </c>
       <c r="B435" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -10349,7 +10448,7 @@
         <v>6207</v>
       </c>
       <c r="B436" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -10369,7 +10468,7 @@
         <v>6208</v>
       </c>
       <c r="B437" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -10389,7 +10488,7 @@
         <v>6209</v>
       </c>
       <c r="B438" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -10409,7 +10508,7 @@
         <v>6210</v>
       </c>
       <c r="B439" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -10429,7 +10528,7 @@
         <v>6251</v>
       </c>
       <c r="B440" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -10449,7 +10548,7 @@
         <v>6252</v>
       </c>
       <c r="B441" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -10469,7 +10568,7 @@
         <v>6253</v>
       </c>
       <c r="B442" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -10489,7 +10588,7 @@
         <v>6254</v>
       </c>
       <c r="B443" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -10509,7 +10608,7 @@
         <v>6255</v>
       </c>
       <c r="B444" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -10529,7 +10628,7 @@
         <v>6256</v>
       </c>
       <c r="B445" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -10549,7 +10648,7 @@
         <v>6257</v>
       </c>
       <c r="B446" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -10569,7 +10668,7 @@
         <v>6258</v>
       </c>
       <c r="B447" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -10589,7 +10688,7 @@
         <v>6301</v>
       </c>
       <c r="B448" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -10609,7 +10708,7 @@
         <v>6302</v>
       </c>
       <c r="B449" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -10629,7 +10728,7 @@
         <v>6303</v>
       </c>
       <c r="B450" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -10649,7 +10748,7 @@
         <v>6304</v>
       </c>
       <c r="B451" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -10669,7 +10768,7 @@
         <v>6305</v>
       </c>
       <c r="B452" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -10689,7 +10788,7 @@
         <v>6306</v>
       </c>
       <c r="B453" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -10709,7 +10808,7 @@
         <v>6307</v>
       </c>
       <c r="B454" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -10729,7 +10828,7 @@
         <v>6351</v>
       </c>
       <c r="B455" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -10749,7 +10848,7 @@
         <v>6352</v>
       </c>
       <c r="B456" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -10769,7 +10868,7 @@
         <v>6353</v>
       </c>
       <c r="B457" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -10789,7 +10888,7 @@
         <v>6354</v>
       </c>
       <c r="B458" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -10809,7 +10908,7 @@
         <v>6355</v>
       </c>
       <c r="B459" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -10829,7 +10928,7 @@
         <v>6356</v>
       </c>
       <c r="B460" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -10849,7 +10948,7 @@
         <v>6357</v>
       </c>
       <c r="B461" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -10869,7 +10968,7 @@
         <v>6359</v>
       </c>
       <c r="B462" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -10889,7 +10988,7 @@
         <v>6360</v>
       </c>
       <c r="B463" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -10909,7 +11008,7 @@
         <v>6401</v>
       </c>
       <c r="B464" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -10929,7 +11028,7 @@
         <v>6402</v>
       </c>
       <c r="B465" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -10949,7 +11048,7 @@
         <v>6403</v>
       </c>
       <c r="B466" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -10969,7 +11068,7 @@
         <v>6404</v>
       </c>
       <c r="B467" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -10989,7 +11088,7 @@
         <v>6408</v>
       </c>
       <c r="B468" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -11009,7 +11108,7 @@
         <v>6409</v>
       </c>
       <c r="B469" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -11029,7 +11128,7 @@
         <v>6410</v>
       </c>
       <c r="B470" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -11049,7 +11148,7 @@
         <v>6411</v>
       </c>
       <c r="B471" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -11069,7 +11168,7 @@
         <v>6412</v>
       </c>
       <c r="B472" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -11089,7 +11188,7 @@
         <v>6413</v>
       </c>
       <c r="B473" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -11109,7 +11208,7 @@
         <v>6414</v>
       </c>
       <c r="B474" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -11129,7 +11228,7 @@
         <v>6415</v>
       </c>
       <c r="B475" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -11149,7 +11248,7 @@
         <v>6501</v>
       </c>
       <c r="B476" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -11169,7 +11268,7 @@
         <v>6502</v>
       </c>
       <c r="B477" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -11189,7 +11288,7 @@
         <v>6503</v>
       </c>
       <c r="B478" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -11209,7 +11308,7 @@
         <v>6504</v>
       </c>
       <c r="B479" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -11229,7 +11328,7 @@
         <v>6505</v>
       </c>
       <c r="B480" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -11249,7 +11348,7 @@
         <v>6551</v>
       </c>
       <c r="B481" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -11269,7 +11368,7 @@
         <v>6552</v>
       </c>
       <c r="B482" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -11289,7 +11388,7 @@
         <v>6553</v>
       </c>
       <c r="B483" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -11309,7 +11408,7 @@
         <v>6554</v>
       </c>
       <c r="B484" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -11329,7 +11428,7 @@
         <v>6555</v>
       </c>
       <c r="B485" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -11349,7 +11448,7 @@
         <v>6556</v>
       </c>
       <c r="B486" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -11369,7 +11468,7 @@
         <v>6557</v>
       </c>
       <c r="B487" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -11389,7 +11488,7 @@
         <v>6603</v>
       </c>
       <c r="B488" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -11409,7 +11508,7 @@
         <v>6651</v>
       </c>
       <c r="B489" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -11429,7 +11528,7 @@
         <v>6652</v>
       </c>
       <c r="B490" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -11449,7 +11548,7 @@
         <v>6653</v>
       </c>
       <c r="B491" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -11469,7 +11568,7 @@
         <v>6654</v>
       </c>
       <c r="B492" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -11489,7 +11588,7 @@
         <v>6655</v>
       </c>
       <c r="B493" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -11509,7 +11608,7 @@
         <v>6656</v>
       </c>
       <c r="B494" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -11529,7 +11628,7 @@
         <v>6657</v>
       </c>
       <c r="B495" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -11549,7 +11648,7 @@
         <v>6658</v>
       </c>
       <c r="B496" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -11569,7 +11668,7 @@
         <v>6659</v>
       </c>
       <c r="B497" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -11589,7 +11688,7 @@
         <v>6660</v>
       </c>
       <c r="B498" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -11609,7 +11708,7 @@
         <v>6661</v>
       </c>
       <c r="B499" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -11629,7 +11728,7 @@
         <v>6662</v>
       </c>
       <c r="B500" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -11649,7 +11748,7 @@
         <v>6663</v>
       </c>
       <c r="B501" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -11669,7 +11768,7 @@
         <v>6664</v>
       </c>
       <c r="B502" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C502">
         <v>1</v>
@@ -11689,7 +11788,7 @@
         <v>6665</v>
       </c>
       <c r="B503" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -11709,7 +11808,7 @@
         <v>6666</v>
       </c>
       <c r="B504" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -11729,7 +11828,7 @@
         <v>6667</v>
       </c>
       <c r="B505" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -11749,7 +11848,7 @@
         <v>6901</v>
       </c>
       <c r="B506" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -11769,7 +11868,7 @@
         <v>6902</v>
       </c>
       <c r="B507" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -11789,7 +11888,7 @@
         <v>6903</v>
       </c>
       <c r="B508" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -11809,7 +11908,7 @@
         <v>6904</v>
       </c>
       <c r="B509" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -11829,7 +11928,7 @@
         <v>6905</v>
       </c>
       <c r="B510" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -11849,7 +11948,7 @@
         <v>6906</v>
       </c>
       <c r="B511" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C511">
         <v>1</v>
@@ -11869,7 +11968,7 @@
         <v>6907</v>
       </c>
       <c r="B512" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -11889,7 +11988,7 @@
         <v>6908</v>
       </c>
       <c r="B513" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -11909,7 +12008,7 @@
         <v>6909</v>
       </c>
       <c r="B514" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -11929,7 +12028,7 @@
         <v>6910</v>
       </c>
       <c r="B515" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -11949,7 +12048,7 @@
         <v>6911</v>
       </c>
       <c r="B516" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -11969,7 +12068,7 @@
         <v>6912</v>
       </c>
       <c r="B517" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -11989,7 +12088,7 @@
         <v>6913</v>
       </c>
       <c r="B518" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -12009,7 +12108,7 @@
         <v>6914</v>
       </c>
       <c r="B519" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -12029,7 +12128,7 @@
         <v>6915</v>
       </c>
       <c r="B520" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C520">
         <v>1</v>
@@ -12049,7 +12148,7 @@
         <v>6916</v>
       </c>
       <c r="B521" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -12069,7 +12168,7 @@
         <v>6917</v>
       </c>
       <c r="B522" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -12089,7 +12188,7 @@
         <v>6918</v>
       </c>
       <c r="B523" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -12109,7 +12208,7 @@
         <v>6919</v>
       </c>
       <c r="B524" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -12129,7 +12228,7 @@
         <v>6920</v>
       </c>
       <c r="B525" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -12149,7 +12248,7 @@
         <v>6921</v>
       </c>
       <c r="B526" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -12169,7 +12268,7 @@
         <v>6922</v>
       </c>
       <c r="B527" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -12189,7 +12288,7 @@
         <v>6923</v>
       </c>
       <c r="B528" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -12204,12 +12303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>6924</v>
       </c>
       <c r="B529" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -12224,12 +12323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>6925</v>
       </c>
       <c r="B530" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -12244,12 +12343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>6929</v>
       </c>
       <c r="B531" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -12263,13 +12362,16 @@
       <c r="F531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G531" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>6931</v>
       </c>
       <c r="B532" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -12284,12 +12386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>6932</v>
       </c>
       <c r="B533" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -12304,12 +12406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>6933</v>
       </c>
       <c r="B534" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -12324,12 +12426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>6934</v>
       </c>
       <c r="B535" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C535">
         <v>1</v>
@@ -12344,12 +12446,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>6949</v>
       </c>
       <c r="B536" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -12364,12 +12466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>7101</v>
       </c>
       <c r="B537" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C537">
         <v>1</v>
@@ -12384,12 +12486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>7102</v>
       </c>
       <c r="B538" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -12404,12 +12506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>7105</v>
       </c>
       <c r="B539" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -12424,12 +12526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>7106</v>
       </c>
       <c r="B540" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -12444,12 +12546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>7127</v>
       </c>
       <c r="B541" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -12464,12 +12566,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>7129</v>
       </c>
       <c r="B542" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -12484,12 +12586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>7201</v>
       </c>
       <c r="B543" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -12504,12 +12606,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>7202</v>
       </c>
       <c r="B544" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -12529,7 +12631,7 @@
         <v>7205</v>
       </c>
       <c r="B545" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C545">
         <v>1</v>
@@ -12549,7 +12651,7 @@
         <v>7206</v>
       </c>
       <c r="B546" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -12569,7 +12671,7 @@
         <v>7207</v>
       </c>
       <c r="B547" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -12589,7 +12691,7 @@
         <v>7210</v>
       </c>
       <c r="B548" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C548">
         <v>1</v>
@@ -12609,7 +12711,7 @@
         <v>7211</v>
       </c>
       <c r="B549" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C549">
         <v>1</v>
@@ -12629,7 +12731,7 @@
         <v>7212</v>
       </c>
       <c r="B550" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -12649,7 +12751,7 @@
         <v>7251</v>
       </c>
       <c r="B551" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C551">
         <v>1</v>
@@ -12669,7 +12771,7 @@
         <v>7301</v>
       </c>
       <c r="B552" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -12689,7 +12791,7 @@
         <v>7358</v>
       </c>
       <c r="B553" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -12709,7 +12811,7 @@
         <v>7501</v>
       </c>
       <c r="B554" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C554">
         <v>1</v>
@@ -12729,7 +12831,7 @@
         <v>7551</v>
       </c>
       <c r="B555" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C555">
         <v>1</v>
@@ -12749,7 +12851,7 @@
         <v>7553</v>
       </c>
       <c r="B556" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C556">
         <v>1</v>
@@ -12769,7 +12871,7 @@
         <v>7556</v>
       </c>
       <c r="B557" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C557">
         <v>1</v>
@@ -12789,7 +12891,7 @@
         <v>7651</v>
       </c>
       <c r="B558" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C558">
         <v>1</v>
@@ -12809,7 +12911,7 @@
         <v>7654</v>
       </c>
       <c r="B559" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C559">
         <v>1</v>
@@ -12829,7 +12931,7 @@
         <v>7667</v>
       </c>
       <c r="B560" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C560">
         <v>1</v>
@@ -12849,7 +12951,7 @@
         <v>7930</v>
       </c>
       <c r="B561" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C561">
         <v>1</v>
@@ -12869,7 +12971,7 @@
         <v>7949</v>
       </c>
       <c r="B562" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C562">
         <v>1</v>
